--- a/school_teacherextra.xlsx
+++ b/school_teacherextra.xlsx
@@ -955,10 +955,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
